--- a/datf_core/test/s2t/s2t_24_postgres_csv_counting.xlsx
+++ b/datf_core/test/s2t/s2t_24_postgres_csv_counting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091F433-D0D5-42C5-BA12-7268E4201AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED608E49-019F-457F-96EB-D81F15105568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
@@ -338,9 +338,6 @@
     <t>delimitedfile</t>
   </si>
   <si>
-    <t>/app/test/data/target</t>
-  </si>
-  <si>
     <t>hnpstats_data.csv</t>
   </si>
   <si>
@@ -747,6 +744,9 @@
   </si>
   <si>
     <t>y2021</t>
+  </si>
+  <si>
+    <t>test/data/target</t>
   </si>
 </sst>
 </file>
@@ -882,9 +882,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -922,7 +922,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1028,7 +1028,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1170,7 +1170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,7 +1335,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -1684,7 +1684,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
@@ -1704,7 +1704,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
@@ -1721,7 +1721,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -1738,7 +1738,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
@@ -1755,7 +1755,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -1772,7 +1772,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
@@ -1789,7 +1789,7 @@
         <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5">
         <v>11</v>
@@ -1823,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5">
         <v>12</v>
@@ -1840,7 +1840,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5">
         <v>13</v>
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5">
         <v>14</v>
@@ -1874,7 +1874,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="5">
         <v>15</v>
@@ -1891,7 +1891,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="5">
         <v>16</v>
@@ -1908,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="5">
         <v>17</v>
@@ -1925,7 +1925,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="5">
         <v>18</v>
@@ -1942,7 +1942,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="5">
         <v>19</v>
@@ -1959,7 +1959,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="5">
         <v>20</v>
@@ -1976,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5">
         <v>21</v>
@@ -1993,7 +1993,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="5">
         <v>22</v>
@@ -2010,7 +2010,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="5">
         <v>23</v>
@@ -2027,7 +2027,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="5">
         <v>24</v>
@@ -2044,7 +2044,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5">
         <v>25</v>
@@ -2061,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5">
         <v>26</v>
@@ -2078,7 +2078,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="5">
         <v>27</v>
@@ -2095,7 +2095,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5">
         <v>28</v>
@@ -2112,7 +2112,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="5">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="5">
         <v>30</v>
@@ -2146,7 +2146,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="5">
         <v>31</v>
@@ -2163,7 +2163,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="5">
         <v>32</v>
@@ -2180,7 +2180,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="5">
         <v>33</v>
@@ -2197,7 +2197,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="5">
         <v>34</v>
@@ -2214,7 +2214,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="5">
         <v>35</v>
@@ -2231,7 +2231,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="5">
         <v>36</v>
@@ -2248,7 +2248,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="5">
         <v>37</v>
@@ -2265,7 +2265,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="5">
         <v>38</v>
@@ -2282,7 +2282,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="5">
         <v>39</v>
@@ -2299,7 +2299,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="5">
         <v>40</v>
@@ -2316,7 +2316,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5">
         <v>41</v>
@@ -2333,7 +2333,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="5">
         <v>42</v>
@@ -2350,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="5">
         <v>43</v>
@@ -2367,7 +2367,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="5">
         <v>44</v>
@@ -2384,7 +2384,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="5">
         <v>45</v>
@@ -2401,7 +2401,7 @@
         <v>66</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="5">
         <v>46</v>
@@ -2418,7 +2418,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="5">
         <v>47</v>
@@ -2435,7 +2435,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
@@ -2452,7 +2452,7 @@
         <v>66</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="5">
         <v>49</v>
@@ -2469,7 +2469,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="5">
         <v>50</v>
@@ -2486,7 +2486,7 @@
         <v>66</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="5">
         <v>51</v>
@@ -2503,7 +2503,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="5">
         <v>52</v>
@@ -2520,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="5">
         <v>53</v>
@@ -2537,7 +2537,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="5">
         <v>54</v>
@@ -2554,7 +2554,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" s="5">
         <v>55</v>
@@ -2571,7 +2571,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="5">
         <v>56</v>
@@ -2588,7 +2588,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="5">
         <v>57</v>
@@ -2605,7 +2605,7 @@
         <v>66</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5">
         <v>58</v>
@@ -2622,7 +2622,7 @@
         <v>66</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" s="5">
         <v>59</v>
@@ -2639,7 +2639,7 @@
         <v>66</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="5">
         <v>60</v>
@@ -2656,7 +2656,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="5">
         <v>61</v>
@@ -2673,7 +2673,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="5">
         <v>62</v>
@@ -2690,7 +2690,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="5">
         <v>63</v>
@@ -2707,7 +2707,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="5">
         <v>64</v>
@@ -2724,7 +2724,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="5">
         <v>65</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" s="5">
         <v>66</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
@@ -2786,13 +2786,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" s="5">
         <v>4</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D73" s="5">
         <v>6</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" s="5">
         <v>7</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" s="5">
         <v>8</v>
@@ -2891,13 +2891,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" s="5">
         <v>9</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77" s="5">
         <v>10</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D78" s="5">
         <v>11</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" s="5">
         <v>12</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D80" s="5">
         <v>13</v>
@@ -2976,13 +2976,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" s="5">
         <v>14</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" s="5">
         <v>15</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" s="5">
         <v>16</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D84" s="5">
         <v>17</v>
@@ -3044,13 +3044,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D85" s="5">
         <v>18</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D86" s="5">
         <v>19</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D87" s="5">
         <v>20</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88" s="5">
         <v>21</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D89" s="5">
         <v>22</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" s="5">
         <v>23</v>
@@ -3146,13 +3146,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D91" s="5">
         <v>24</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D92" s="5">
         <v>25</v>
@@ -3180,13 +3180,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D93" s="5">
         <v>26</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" s="5">
         <v>27</v>
@@ -3214,13 +3214,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D95" s="5">
         <v>28</v>
@@ -3231,13 +3231,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D96" s="5">
         <v>29</v>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D97" s="5">
         <v>30</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D98" s="5">
         <v>31</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D99" s="5">
         <v>32</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" s="5">
         <v>33</v>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101" s="5">
         <v>34</v>
@@ -3333,13 +3333,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D102" s="5">
         <v>35</v>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D103" s="5">
         <v>36</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D104" s="5">
         <v>37</v>
@@ -3384,13 +3384,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D105" s="5">
         <v>38</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D106" s="5">
         <v>39</v>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D107" s="5">
         <v>40</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D108" s="5">
         <v>41</v>
@@ -3452,13 +3452,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D109" s="5">
         <v>42</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D110" s="5">
         <v>43</v>
@@ -3486,13 +3486,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D111" s="5">
         <v>44</v>
@@ -3503,13 +3503,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D112" s="5">
         <v>45</v>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D113" s="5">
         <v>46</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D114" s="5">
         <v>47</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D115" s="5">
         <v>48</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D116" s="5">
         <v>49</v>
@@ -3588,13 +3588,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D117" s="5">
         <v>50</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D118" s="5">
         <v>51</v>
@@ -3622,13 +3622,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D119" s="5">
         <v>52</v>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120" s="5">
         <v>53</v>
@@ -3656,13 +3656,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D121" s="5">
         <v>54</v>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D122" s="5">
         <v>55</v>
@@ -3690,13 +3690,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D123" s="5">
         <v>56</v>
@@ -3707,13 +3707,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D124" s="5">
         <v>57</v>
@@ -3724,13 +3724,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D125" s="5">
         <v>58</v>
@@ -3741,13 +3741,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D126" s="5">
         <v>59</v>
@@ -3758,13 +3758,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" s="5">
         <v>60</v>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D128" s="5">
         <v>61</v>
@@ -3792,13 +3792,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" s="5">
         <v>62</v>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D130" s="5">
         <v>63</v>
@@ -3826,13 +3826,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D131" s="5">
         <v>64</v>
@@ -3843,13 +3843,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D132" s="5">
         <v>65</v>
@@ -3860,13 +3860,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D133" s="5">
         <v>66</v>
@@ -3883,7 +3883,7 @@
         <v>88</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D134" s="5">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>88</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D135" s="5">
         <v>2</v>
@@ -3917,7 +3917,7 @@
         <v>88</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D136" s="5">
         <v>3</v>
@@ -3934,7 +3934,7 @@
         <v>88</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D137" s="5">
         <v>4</v>
@@ -3954,7 +3954,7 @@
         <v>88</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D138" s="5">
         <v>5</v>
@@ -3971,7 +3971,7 @@
         <v>88</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D139" s="5">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>88</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D140" s="5">
         <v>7</v>
@@ -4005,7 +4005,7 @@
         <v>88</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D141" s="5">
         <v>8</v>
@@ -4022,7 +4022,7 @@
         <v>88</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D142" s="5">
         <v>9</v>
@@ -4039,7 +4039,7 @@
         <v>88</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D143" s="5">
         <v>10</v>
@@ -4056,7 +4056,7 @@
         <v>88</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D144" s="5">
         <v>11</v>
@@ -4073,7 +4073,7 @@
         <v>88</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D145" s="5">
         <v>12</v>
@@ -4090,7 +4090,7 @@
         <v>88</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D146" s="5">
         <v>13</v>
@@ -4107,7 +4107,7 @@
         <v>88</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D147" s="5">
         <v>14</v>
@@ -4124,7 +4124,7 @@
         <v>88</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D148" s="5">
         <v>15</v>
@@ -4141,7 +4141,7 @@
         <v>88</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D149" s="5">
         <v>16</v>
@@ -4158,7 +4158,7 @@
         <v>88</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D150" s="5">
         <v>17</v>
@@ -4175,7 +4175,7 @@
         <v>88</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D151" s="5">
         <v>18</v>
@@ -4192,7 +4192,7 @@
         <v>88</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D152" s="5">
         <v>19</v>
@@ -4209,7 +4209,7 @@
         <v>88</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D153" s="5">
         <v>20</v>
@@ -4226,7 +4226,7 @@
         <v>88</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D154" s="5">
         <v>21</v>
@@ -4243,7 +4243,7 @@
         <v>88</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D155" s="5">
         <v>22</v>
@@ -4260,7 +4260,7 @@
         <v>88</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D156" s="5">
         <v>23</v>
@@ -4277,7 +4277,7 @@
         <v>88</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D157" s="5">
         <v>24</v>
@@ -4294,7 +4294,7 @@
         <v>88</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D158" s="5">
         <v>25</v>
@@ -4311,7 +4311,7 @@
         <v>88</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D159" s="5">
         <v>26</v>
@@ -4328,7 +4328,7 @@
         <v>88</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D160" s="5">
         <v>27</v>
@@ -4345,7 +4345,7 @@
         <v>88</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D161" s="5">
         <v>28</v>
@@ -4362,7 +4362,7 @@
         <v>88</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D162" s="5">
         <v>29</v>
@@ -4379,7 +4379,7 @@
         <v>88</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D163" s="5">
         <v>30</v>
@@ -4396,7 +4396,7 @@
         <v>88</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D164" s="5">
         <v>31</v>
@@ -4413,7 +4413,7 @@
         <v>88</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D165" s="5">
         <v>32</v>
@@ -4430,7 +4430,7 @@
         <v>88</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="5">
         <v>33</v>
@@ -4447,7 +4447,7 @@
         <v>88</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D167" s="5">
         <v>34</v>
@@ -4464,7 +4464,7 @@
         <v>88</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D168" s="5">
         <v>35</v>
@@ -4481,7 +4481,7 @@
         <v>88</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D169" s="5">
         <v>36</v>
@@ -4498,7 +4498,7 @@
         <v>88</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D170" s="5">
         <v>37</v>
@@ -4515,7 +4515,7 @@
         <v>88</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D171" s="5">
         <v>38</v>
@@ -4532,7 +4532,7 @@
         <v>88</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D172" s="5">
         <v>39</v>
@@ -4549,7 +4549,7 @@
         <v>88</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D173" s="5">
         <v>40</v>
@@ -4566,7 +4566,7 @@
         <v>88</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D174" s="5">
         <v>41</v>
@@ -4583,7 +4583,7 @@
         <v>88</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D175" s="5">
         <v>42</v>
@@ -4600,7 +4600,7 @@
         <v>88</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D176" s="5">
         <v>43</v>
@@ -4617,7 +4617,7 @@
         <v>88</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D177" s="5">
         <v>44</v>
@@ -4634,7 +4634,7 @@
         <v>88</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D178" s="5">
         <v>45</v>
@@ -4651,7 +4651,7 @@
         <v>88</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D179" s="5">
         <v>46</v>
@@ -4668,7 +4668,7 @@
         <v>88</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D180" s="5">
         <v>47</v>
@@ -4685,7 +4685,7 @@
         <v>88</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D181" s="5">
         <v>48</v>
@@ -4702,7 +4702,7 @@
         <v>88</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D182" s="5">
         <v>49</v>
@@ -4719,7 +4719,7 @@
         <v>88</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D183" s="5">
         <v>50</v>
@@ -4736,7 +4736,7 @@
         <v>88</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D184" s="5">
         <v>51</v>
@@ -4753,7 +4753,7 @@
         <v>88</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D185" s="5">
         <v>52</v>
@@ -4770,7 +4770,7 @@
         <v>88</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D186" s="5">
         <v>53</v>
@@ -4787,7 +4787,7 @@
         <v>88</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D187" s="5">
         <v>54</v>
@@ -4804,7 +4804,7 @@
         <v>88</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D188" s="5">
         <v>55</v>
@@ -4821,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D189" s="5">
         <v>56</v>
@@ -4838,7 +4838,7 @@
         <v>88</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D190" s="5">
         <v>57</v>
@@ -4855,7 +4855,7 @@
         <v>88</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D191" s="5">
         <v>58</v>
@@ -4872,7 +4872,7 @@
         <v>88</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D192" s="5">
         <v>59</v>
@@ -4889,7 +4889,7 @@
         <v>88</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D193" s="5">
         <v>60</v>
@@ -4906,7 +4906,7 @@
         <v>88</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D194" s="5">
         <v>61</v>
@@ -4923,7 +4923,7 @@
         <v>88</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D195" s="5">
         <v>62</v>
@@ -4940,7 +4940,7 @@
         <v>88</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D196" s="5">
         <v>63</v>
@@ -4957,7 +4957,7 @@
         <v>88</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D197" s="5">
         <v>64</v>
@@ -4974,7 +4974,7 @@
         <v>88</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D198" s="5">
         <v>65</v>
@@ -4991,7 +4991,7 @@
         <v>88</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D199" s="5">
         <v>66</v>
@@ -5091,13 +5091,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>65</v>
@@ -5106,7 +5106,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>83</v>
@@ -5123,13 +5123,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>65</v>
@@ -5138,7 +5138,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>83</v>
@@ -5155,13 +5155,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>65</v>
@@ -5170,7 +5170,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>83</v>
@@ -5187,13 +5187,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>65</v>
@@ -5202,7 +5202,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>83</v>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>65</v>
@@ -5234,7 +5234,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>83</v>
@@ -5251,13 +5251,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>65</v>
@@ -5266,7 +5266,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>83</v>
@@ -5283,13 +5283,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>65</v>
@@ -5298,7 +5298,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>83</v>
@@ -5315,13 +5315,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>65</v>
@@ -5330,7 +5330,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>83</v>
@@ -5347,13 +5347,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>65</v>
@@ -5362,7 +5362,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>83</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>65</v>
@@ -5394,7 +5394,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>83</v>
@@ -5411,13 +5411,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
@@ -5426,7 +5426,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>83</v>
@@ -5443,13 +5443,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>65</v>
@@ -5458,7 +5458,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>83</v>
@@ -5475,13 +5475,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>65</v>
@@ -5490,7 +5490,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>83</v>
@@ -5507,13 +5507,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>65</v>
@@ -5522,7 +5522,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>83</v>
@@ -5539,13 +5539,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
@@ -5554,7 +5554,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>83</v>
@@ -5571,13 +5571,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>65</v>
@@ -5586,7 +5586,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>83</v>
@@ -5603,13 +5603,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -5618,7 +5618,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>83</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>65</v>
@@ -5650,7 +5650,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>83</v>
@@ -5667,13 +5667,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -5682,7 +5682,7 @@
         <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>83</v>
@@ -5699,13 +5699,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>65</v>
@@ -5714,7 +5714,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>83</v>
@@ -5731,13 +5731,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>65</v>
@@ -5746,7 +5746,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>83</v>
@@ -5763,13 +5763,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>65</v>
@@ -5778,7 +5778,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>83</v>
@@ -5795,13 +5795,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>65</v>
@@ -5810,7 +5810,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>83</v>
@@ -5827,13 +5827,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>65</v>
@@ -5842,7 +5842,7 @@
         <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>83</v>
@@ -5859,13 +5859,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>65</v>
@@ -5874,7 +5874,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>83</v>
@@ -5891,13 +5891,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>65</v>
@@ -5906,7 +5906,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>83</v>
@@ -5923,13 +5923,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>65</v>
@@ -5938,7 +5938,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>83</v>
@@ -5955,13 +5955,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>65</v>
@@ -5970,7 +5970,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>83</v>
@@ -5987,13 +5987,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>65</v>
@@ -6002,7 +6002,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>83</v>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>65</v>
@@ -6034,7 +6034,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>83</v>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>65</v>
@@ -6066,7 +6066,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>83</v>
@@ -6083,13 +6083,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>65</v>
@@ -6098,7 +6098,7 @@
         <v>66</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>83</v>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>65</v>
@@ -6130,7 +6130,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>83</v>
@@ -6147,13 +6147,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>65</v>
@@ -6162,7 +6162,7 @@
         <v>66</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>83</v>
@@ -6179,13 +6179,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>65</v>
@@ -6194,7 +6194,7 @@
         <v>66</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>83</v>
@@ -6211,13 +6211,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>65</v>
@@ -6226,7 +6226,7 @@
         <v>66</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>83</v>
@@ -6243,13 +6243,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>65</v>
@@ -6258,7 +6258,7 @@
         <v>66</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>83</v>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>65</v>
@@ -6290,7 +6290,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>83</v>
@@ -6307,13 +6307,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>65</v>
@@ -6322,7 +6322,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>83</v>
@@ -6339,13 +6339,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>65</v>
@@ -6354,7 +6354,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>83</v>
@@ -6371,13 +6371,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>65</v>
@@ -6386,7 +6386,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>83</v>
@@ -6403,13 +6403,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>65</v>
@@ -6418,7 +6418,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>83</v>
@@ -6435,13 +6435,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>65</v>
@@ -6450,7 +6450,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>83</v>
@@ -6467,13 +6467,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>65</v>
@@ -6482,7 +6482,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>83</v>
@@ -6499,13 +6499,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>65</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>83</v>
@@ -6531,13 +6531,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>65</v>
@@ -6546,7 +6546,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>83</v>
@@ -6563,13 +6563,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>65</v>
@@ -6578,7 +6578,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>83</v>
@@ -6595,13 +6595,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>65</v>
@@ -6610,7 +6610,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>83</v>
@@ -6627,13 +6627,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>65</v>
@@ -6642,7 +6642,7 @@
         <v>66</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>83</v>
@@ -6659,13 +6659,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>65</v>
@@ -6674,7 +6674,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>83</v>
@@ -6691,13 +6691,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>65</v>
@@ -6706,7 +6706,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>83</v>
@@ -6723,13 +6723,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>65</v>
@@ -6738,7 +6738,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>83</v>
@@ -6755,13 +6755,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>65</v>
@@ -6770,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>83</v>
@@ -6787,13 +6787,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>65</v>
@@ -6802,7 +6802,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>83</v>
@@ -6819,13 +6819,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>65</v>
@@ -6834,7 +6834,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>83</v>
@@ -6851,13 +6851,13 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>65</v>
@@ -6866,7 +6866,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>83</v>
@@ -6883,13 +6883,13 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>65</v>
@@ -6898,7 +6898,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>83</v>
@@ -6915,13 +6915,13 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>65</v>
@@ -6930,7 +6930,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>83</v>
@@ -6947,13 +6947,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>65</v>
@@ -6962,7 +6962,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>83</v>
@@ -6979,13 +6979,13 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>65</v>
@@ -6994,7 +6994,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>83</v>
@@ -7011,13 +7011,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>65</v>
@@ -7026,7 +7026,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>83</v>
@@ -7043,13 +7043,13 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>65</v>
@@ -7058,7 +7058,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>83</v>
@@ -7075,13 +7075,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>65</v>
@@ -7090,7 +7090,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>83</v>
@@ -7107,13 +7107,13 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>65</v>
@@ -7122,7 +7122,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>83</v>
@@ -7139,13 +7139,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>65</v>
@@ -7154,7 +7154,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>83</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>65</v>
@@ -7186,7 +7186,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>83</v>
@@ -8847,7 +8847,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>65</v>
@@ -8856,7 +8856,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>83</v>
@@ -8879,7 +8879,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>65</v>
@@ -8888,7 +8888,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>83</v>
@@ -8911,7 +8911,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>65</v>
@@ -8920,7 +8920,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>83</v>
@@ -8943,7 +8943,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>65</v>
@@ -8952,7 +8952,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>83</v>
@@ -8975,7 +8975,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>65</v>
@@ -8984,7 +8984,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>83</v>
@@ -9007,7 +9007,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>65</v>
@@ -9016,7 +9016,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>83</v>
@@ -9039,7 +9039,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>65</v>
@@ -9048,7 +9048,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>83</v>
@@ -9071,7 +9071,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>65</v>
@@ -9080,7 +9080,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>83</v>
@@ -9103,7 +9103,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>65</v>
@@ -9112,7 +9112,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>83</v>
@@ -9135,7 +9135,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>65</v>
@@ -9144,7 +9144,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>83</v>
@@ -9167,7 +9167,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
@@ -9176,7 +9176,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>83</v>
@@ -9199,7 +9199,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>65</v>
@@ -9208,7 +9208,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>83</v>
@@ -9231,7 +9231,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>65</v>
@@ -9240,7 +9240,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>83</v>
@@ -9263,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>65</v>
@@ -9272,7 +9272,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>83</v>
@@ -9295,7 +9295,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
@@ -9304,7 +9304,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>83</v>
@@ -9327,7 +9327,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>65</v>
@@ -9336,7 +9336,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>83</v>
@@ -9359,7 +9359,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -9368,7 +9368,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>83</v>
@@ -9391,7 +9391,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>65</v>
@@ -9400,7 +9400,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>83</v>
@@ -9423,7 +9423,7 @@
         <v>88</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -9432,7 +9432,7 @@
         <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>83</v>
@@ -9455,7 +9455,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>65</v>
@@ -9464,7 +9464,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>83</v>
@@ -9487,7 +9487,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>65</v>
@@ -9496,7 +9496,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>83</v>
@@ -9519,7 +9519,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>65</v>
@@ -9528,7 +9528,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>83</v>
@@ -9551,7 +9551,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>65</v>
@@ -9560,7 +9560,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>83</v>
@@ -9583,7 +9583,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>65</v>
@@ -9592,7 +9592,7 @@
         <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>83</v>
@@ -9615,7 +9615,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>65</v>
@@ -9624,7 +9624,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>83</v>
@@ -9647,7 +9647,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>65</v>
@@ -9656,7 +9656,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>83</v>
@@ -9679,7 +9679,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>65</v>
@@ -9688,7 +9688,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>83</v>
@@ -9711,7 +9711,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>65</v>
@@ -9720,7 +9720,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>83</v>
@@ -9743,7 +9743,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>65</v>
@@ -9752,7 +9752,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>83</v>
@@ -9775,7 +9775,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>65</v>
@@ -9784,7 +9784,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>83</v>
@@ -9807,7 +9807,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>65</v>
@@ -9816,7 +9816,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>83</v>
@@ -9839,7 +9839,7 @@
         <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>65</v>
@@ -9848,7 +9848,7 @@
         <v>66</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>83</v>
@@ -9871,7 +9871,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>65</v>
@@ -9880,7 +9880,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>83</v>
@@ -9903,7 +9903,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>65</v>
@@ -9912,7 +9912,7 @@
         <v>66</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>83</v>
@@ -9935,7 +9935,7 @@
         <v>88</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>65</v>
@@ -9944,7 +9944,7 @@
         <v>66</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>83</v>
@@ -9967,7 +9967,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>65</v>
@@ -9976,7 +9976,7 @@
         <v>66</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>83</v>
@@ -9999,7 +9999,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>65</v>
@@ -10008,7 +10008,7 @@
         <v>66</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>83</v>
@@ -10031,7 +10031,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>65</v>
@@ -10040,7 +10040,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>83</v>
@@ -10063,7 +10063,7 @@
         <v>88</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>65</v>
@@ -10072,7 +10072,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>83</v>
@@ -10095,7 +10095,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>65</v>
@@ -10104,7 +10104,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>83</v>
@@ -10127,7 +10127,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>65</v>
@@ -10136,7 +10136,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>83</v>
@@ -10159,7 +10159,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>65</v>
@@ -10168,7 +10168,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>83</v>
@@ -10191,7 +10191,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>65</v>
@@ -10200,7 +10200,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>83</v>
@@ -10223,7 +10223,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>65</v>
@@ -10232,7 +10232,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>83</v>
@@ -10255,7 +10255,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>65</v>
@@ -10264,7 +10264,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>83</v>
@@ -10287,7 +10287,7 @@
         <v>88</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>65</v>
@@ -10296,7 +10296,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>83</v>
@@ -10319,7 +10319,7 @@
         <v>88</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>65</v>
@@ -10328,7 +10328,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>83</v>
@@ -10351,7 +10351,7 @@
         <v>88</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>65</v>
@@ -10360,7 +10360,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>83</v>
@@ -10383,7 +10383,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>65</v>
@@ -10392,7 +10392,7 @@
         <v>66</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>83</v>
@@ -10415,7 +10415,7 @@
         <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>65</v>
@@ -10424,7 +10424,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>83</v>
@@ -10447,7 +10447,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>65</v>
@@ -10456,7 +10456,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>83</v>
@@ -10479,7 +10479,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>65</v>
@@ -10488,7 +10488,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>83</v>
@@ -10511,7 +10511,7 @@
         <v>88</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>65</v>
@@ -10520,7 +10520,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>83</v>
@@ -10543,7 +10543,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>65</v>
@@ -10552,7 +10552,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>83</v>
@@ -10575,7 +10575,7 @@
         <v>88</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>65</v>
@@ -10584,7 +10584,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>83</v>
@@ -10607,7 +10607,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>65</v>
@@ -10616,7 +10616,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>83</v>
@@ -10639,7 +10639,7 @@
         <v>88</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>65</v>
@@ -10648,7 +10648,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>83</v>
@@ -10671,7 +10671,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>65</v>
@@ -10680,7 +10680,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>83</v>
@@ -10703,7 +10703,7 @@
         <v>88</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>65</v>
@@ -10712,7 +10712,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>83</v>
@@ -10735,7 +10735,7 @@
         <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>65</v>
@@ -10744,7 +10744,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>83</v>
@@ -10767,7 +10767,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>65</v>
@@ -10776,7 +10776,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>83</v>
@@ -10799,7 +10799,7 @@
         <v>88</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>65</v>
@@ -10808,7 +10808,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>83</v>
@@ -10831,7 +10831,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>65</v>
@@ -10840,7 +10840,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>83</v>
@@ -10863,7 +10863,7 @@
         <v>88</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>65</v>
@@ -10872,7 +10872,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>83</v>
@@ -10895,7 +10895,7 @@
         <v>88</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>65</v>
@@ -10904,7 +10904,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>83</v>
@@ -10927,7 +10927,7 @@
         <v>88</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>65</v>
@@ -10936,7 +10936,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>83</v>
